--- a/lessons_schedule.xlsx
+++ b/lessons_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasil\PycharmProjects\Individual_bot\lexicon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasil\PycharmProjects\Individual_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151BDD69-0546-43CA-995F-F69163EED9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9879ECD-5E6A-4FD4-AE1D-AC896950A103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="77">
   <si>
     <t>День</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>1В</t>
+  </si>
+  <si>
+    <t>6М</t>
   </si>
 </sst>
 </file>
@@ -288,8 +291,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI65"/>
+  <dimension ref="A1:AJ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AH37" sqref="AH37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,12 +593,14 @@
     <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="9.140625" style="1"/>
-    <col min="32" max="32" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="73.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="2"/>
+    <col min="21" max="32" width="9.140625" style="1"/>
+    <col min="33" max="33" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="73.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,57 +658,60 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1">
@@ -757,9 +768,6 @@
       <c r="S2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="U2" s="1" t="s">
         <v>47</v>
       </c>
@@ -805,117 +813,120 @@
       <c r="AI2" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="AJ2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="AJ3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="AH4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="AJ4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AH7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG8" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="AH8" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="AJ8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="1">
@@ -924,126 +935,126 @@
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG9" s="1" t="s">
+      <c r="AH9" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="AJ9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AG10" s="1" t="s">
+      <c r="AH10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH10" s="1" t="s">
+      <c r="AI10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AI10" s="1" t="s">
+      <c r="AJ10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG11" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AH11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="AJ11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AG12" s="1" t="s">
+      <c r="AH12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AH12" s="1" t="s">
+      <c r="AI12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AI12" s="1" t="s">
+      <c r="AJ12" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AH13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AI13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AI13" s="1" t="s">
+      <c r="AJ13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG14" s="1" t="s">
+      <c r="AH14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AH14" s="1" t="s">
+      <c r="AI14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AI14" s="1" t="s">
+      <c r="AJ14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG15" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AH15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AI15" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="AJ15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="1">
@@ -1052,126 +1063,126 @@
       <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG16" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="AH16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AI16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AG17" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="AH17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AI17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG18" s="1" t="s">
+      <c r="AH18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AH18" s="1" t="s">
+      <c r="AI18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AI18" s="1" t="s">
+      <c r="AJ18" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AG19" s="1" t="s">
+      <c r="AH19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH19" s="1" t="s">
+      <c r="AI19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI19" s="1" t="s">
+      <c r="AJ19" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AG20" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AH20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AI20" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="AJ20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AH21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AI21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG22" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AH22" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AI22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="1">
@@ -1180,126 +1191,126 @@
       <c r="C23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG23" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="AH23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AI23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AG24" s="1" t="s">
+      <c r="AH24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH24" s="1" t="s">
+      <c r="AI24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AI24" s="1" t="s">
+      <c r="AJ24" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG25" s="1" t="s">
+      <c r="AH25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AH25" s="1" t="s">
+      <c r="AI25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI25" s="1" t="s">
+      <c r="AJ25" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AG26" s="1" t="s">
+      <c r="AH26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH26" s="1" t="s">
+      <c r="AI26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AI26" s="1" t="s">
+      <c r="AJ26" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AG27" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AH27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="AJ27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG28" s="1" t="s">
+      <c r="AH28" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="AH28" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="AI28" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="AJ28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG29" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="AH29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AI29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="1">
@@ -1308,125 +1319,125 @@
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG30" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AH30" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AI30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="AI31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG32" s="1" t="s">
+      <c r="AH32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AH32" s="1" t="s">
+      <c r="AI32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AI32" s="1" t="s">
+      <c r="AJ32" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AG33" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="AH33" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AI33" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="AJ33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AG34" s="1" t="s">
+      <c r="AH34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH34" s="1" t="s">
+      <c r="AI34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI34" s="1" t="s">
+      <c r="AJ34" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG35" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="AH35" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AI35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG36" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="AH36" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AI36" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ36" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1446,72 +1457,72 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B51" s="1">
@@ -1519,31 +1530,31 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B56" s="1">
@@ -1551,31 +1562,31 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B61" s="1">
@@ -1583,41 +1594,41 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A61:A65"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A61:A65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lessons_schedule.xlsx
+++ b/lessons_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasil\PycharmProjects\Individual_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9879ECD-5E6A-4FD4-AE1D-AC896950A103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B01EBC-C9F9-4ED9-A1DA-BDB2CF074C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8415" yWindow="3165" windowWidth="14445" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="112">
   <si>
     <t>День</t>
   </si>
@@ -256,6 +256,111 @@
   </si>
   <si>
     <t>6М</t>
+  </si>
+  <si>
+    <t>Русский язык</t>
+  </si>
+  <si>
+    <t>Экономика</t>
+  </si>
+  <si>
+    <t>Алгебра/Геометрия</t>
+  </si>
+  <si>
+    <t>ИП/Основы перевода/Геометрия</t>
+  </si>
+  <si>
+    <t>ИП/Алгебра</t>
+  </si>
+  <si>
+    <t>ИП</t>
+  </si>
+  <si>
+    <t>Обществознание/Физика</t>
+  </si>
+  <si>
+    <t>ОБЖ</t>
+  </si>
+  <si>
+    <t>Вероятность и статистика</t>
+  </si>
+  <si>
+    <t>Биология</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>Информатика/Обществознание</t>
+  </si>
+  <si>
+    <t>Геометрия/Алгебра</t>
+  </si>
+  <si>
+    <t>Информатика/История в лицах</t>
+  </si>
+  <si>
+    <t>Алгебра/Комплексный анализ текста/Геометрия</t>
+  </si>
+  <si>
+    <t>Физическая культура</t>
+  </si>
+  <si>
+    <t>Актуальные вопросы православия/Физика</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Англиский язык</t>
+  </si>
+  <si>
+    <t>Программирование</t>
+  </si>
+  <si>
+    <t>Основы медиапроизводства/Основа письменного и устного перевода</t>
+  </si>
+  <si>
+    <t>Второй иностранный язык/Методы эффективной коммуникации</t>
+  </si>
+  <si>
+    <t>Второй иностранный язык/Компьютерная графика/Медиатворчество</t>
+  </si>
+  <si>
+    <t>Естественнонаучная грамотность/Осмысленное чтение/Основы письменного и устного перевода</t>
+  </si>
+  <si>
+    <t>Английский язык/Немецкий язык</t>
+  </si>
+  <si>
+    <t>Компьютерная графика/Финансовая грамотность/Язык и культура</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Информатика/Английский язык</t>
+  </si>
+  <si>
+    <t>Изобразительное искусство</t>
+  </si>
+  <si>
+    <t>Технология</t>
+  </si>
+  <si>
+    <t>Осмысленное чтение</t>
+  </si>
+  <si>
+    <t>Музыка</t>
+  </si>
+  <si>
+    <t>Наглядная геометрия</t>
+  </si>
+  <si>
+    <t>Второй иностранный язык/Английский язык и культура англоговорящих стран</t>
+  </si>
+  <si>
+    <t>ОДНКНР</t>
   </si>
 </sst>
 </file>
@@ -291,8 +396,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AH37" sqref="AH37"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,10 +701,16 @@
     <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="9.140625" style="2"/>
-    <col min="21" max="32" width="9.140625" style="1"/>
-    <col min="33" max="33" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="74.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="93" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="66.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="36" width="73.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -711,7 +825,7 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1">
@@ -768,6 +882,9 @@
       <c r="S2" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="T2" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="U2" s="1" t="s">
         <v>47</v>
       </c>
@@ -818,13 +935,76 @@
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AH3" s="1" t="s">
         <v>48</v>
       </c>
@@ -836,13 +1016,76 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="M4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AH4" s="1" t="s">
         <v>50</v>
       </c>
@@ -854,13 +1097,76 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AH5" s="1" t="s">
         <v>51</v>
       </c>
@@ -872,13 +1178,76 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AH6" s="1" t="s">
         <v>52</v>
       </c>
@@ -890,13 +1259,76 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AH7" s="1" t="s">
         <v>53</v>
       </c>
@@ -908,13 +1340,67 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="P8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AH8" s="1" t="s">
         <v>57</v>
       </c>
@@ -926,7 +1412,7 @@
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="1">
@@ -935,6 +1421,69 @@
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="AH9" s="1" t="s">
         <v>58</v>
       </c>
@@ -946,13 +1495,76 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="M10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="AH10" s="1" t="s">
         <v>52</v>
       </c>
@@ -964,13 +1576,76 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="M11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AH11" s="1" t="s">
         <v>60</v>
       </c>
@@ -982,13 +1657,76 @@
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="AH12" s="1" t="s">
         <v>53</v>
       </c>
@@ -1000,13 +1738,76 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="M13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AH13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1018,13 +1819,76 @@
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="M14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AH14" s="1" t="s">
         <v>55</v>
       </c>
@@ -1036,13 +1900,43 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="X15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AH15" s="1" t="s">
         <v>63</v>
       </c>
@@ -1054,7 +1948,7 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="1">
@@ -1063,6 +1957,69 @@
       <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="AH16" s="1" t="s">
         <v>64</v>
       </c>
@@ -1074,13 +2031,76 @@
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="M17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="AH17" s="1" t="s">
         <v>61</v>
       </c>
@@ -1092,13 +2112,76 @@
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="M18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AH18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1110,13 +2193,76 @@
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="M19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="AH19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1128,13 +2274,76 @@
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="M20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="AH20" s="1" t="s">
         <v>60</v>
       </c>
@@ -1146,13 +2355,76 @@
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1">
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="M21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AH21" s="1" t="s">
         <v>51</v>
       </c>
@@ -1164,13 +2436,46 @@
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="1">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="V22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="AH22" s="1" t="s">
         <v>68</v>
       </c>
@@ -1182,7 +2487,7 @@
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="1">
@@ -1191,6 +2496,69 @@
       <c r="C23" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="AH23" s="1" t="s">
         <v>48</v>
       </c>
@@ -1202,13 +2570,76 @@
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="M24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AH24" s="1" t="s">
         <v>61</v>
       </c>
@@ -1220,13 +2651,76 @@
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="M25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="AH25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1238,13 +2732,76 @@
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="M26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AH26" s="1" t="s">
         <v>65</v>
       </c>
@@ -1256,13 +2813,76 @@
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="M27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="AH27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1274,13 +2894,76 @@
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="M28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AH28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1292,13 +2975,43 @@
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="U29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="AH29" s="1" t="s">
         <v>48</v>
       </c>
@@ -1310,7 +3023,7 @@
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="1">
@@ -1319,6 +3032,69 @@
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="AH30" s="1" t="s">
         <v>68</v>
       </c>
@@ -1330,13 +3106,76 @@
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="M31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="AH31" s="1" t="s">
         <v>55</v>
       </c>
@@ -1348,13 +3187,76 @@
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="1">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="M32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AH32" s="1" t="s">
         <v>53</v>
       </c>
@@ -1366,13 +3268,76 @@
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="1">
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="M33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AH33" s="1" t="s">
         <v>71</v>
       </c>
@@ -1384,13 +3349,76 @@
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="1">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="M34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="AH34" s="1" t="s">
         <v>49</v>
       </c>
@@ -1402,13 +3430,76 @@
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="1">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="M35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AH35" s="1" t="s">
         <v>48</v>
       </c>
@@ -1420,12 +3511,24 @@
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="1">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG36" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="AH36" s="1" t="s">
         <v>72</v>
@@ -1458,7 +3561,7 @@
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="1">
@@ -1466,31 +3569,31 @@
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="1">
@@ -1498,31 +3601,31 @@
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B51" s="1">
@@ -1530,31 +3633,31 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="4"/>
       <c r="B52" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="4"/>
       <c r="B54" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B56" s="1">
@@ -1562,31 +3665,31 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+      <c r="A57" s="4"/>
       <c r="B57" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="4"/>
       <c r="B58" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B61" s="1">
@@ -1594,25 +3697,25 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="A62" s="4"/>
       <c r="B62" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="4"/>
       <c r="B63" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+      <c r="A64" s="4"/>
       <c r="B64" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="A65" s="4"/>
       <c r="B65" s="1">
         <v>5</v>
       </c>
